--- a/data/outputs/OR/5.xlsx
+++ b/data/outputs/OR/5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ95"/>
+  <dimension ref="A1:BR95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -901,6 +906,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1108,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1319,6 +1326,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1532,6 +1540,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1741,6 +1750,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1954,6 +1964,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2167,6 +2178,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2388,6 +2400,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2601,6 +2614,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2810,6 +2824,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3023,6 +3038,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3236,6 +3252,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3453,6 +3470,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3662,6 +3680,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3875,6 +3894,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4084,6 +4104,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>9694638</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4293,6 +4318,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4514,6 +4540,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4731,6 +4758,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4948,6 +4976,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5153,6 +5182,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5386,6 +5416,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5611,6 +5642,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5836,6 +5868,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6057,6 +6090,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6155,7 +6189,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Tse, Oliver/0000-0001-7577-3110; </t>
+          <t>Tse, Oliver/0000-0001-7577-3110;</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -6290,6 +6324,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6519,6 +6554,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6744,6 +6780,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6977,6 +7014,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7202,6 +7240,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7431,6 +7470,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>4424325</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7656,6 +7700,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7889,6 +7934,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8098,6 +8144,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8299,6 +8346,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8514,6 +8562,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8715,6 +8764,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8924,6 +8974,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9133,6 +9184,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9334,6 +9386,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9535,6 +9588,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9732,6 +9786,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9941,6 +9996,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10158,6 +10214,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10375,6 +10432,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10584,6 +10642,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10785,6 +10844,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>1933809</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11002,6 +11066,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11211,6 +11276,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11428,6 +11494,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11649,6 +11716,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11866,6 +11934,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12071,6 +12140,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12288,6 +12358,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12505,6 +12576,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12706,6 +12778,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12919,6 +12992,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13136,6 +13210,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13337,6 +13412,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13546,6 +13622,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13755,6 +13832,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13972,6 +14050,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14181,6 +14260,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14268,7 +14348,7 @@
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr">
         <is>
-          <t> [ONR N00014-09-10518];  [N00014-210051]</t>
+          <t>[ONR N00014-09-10518];  [N00014-210051]</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -14394,6 +14474,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14599,6 +14680,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14685,7 +14767,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Birgin, Ernesto/0000-0002-7466-7663; </t>
+          <t>Birgin, Ernesto/0000-0002-7466-7663;</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -14816,6 +14898,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15017,6 +15100,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15226,6 +15310,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15435,6 +15520,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15648,6 +15734,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15857,6 +15944,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16062,6 +16150,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16275,6 +16364,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16484,6 +16574,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16701,6 +16792,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16918,6 +17010,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17127,6 +17220,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>2488717</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17328,6 +17426,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17529,6 +17628,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17746,6 +17846,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17963,6 +18064,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18180,6 +18282,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18389,6 +18492,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18594,6 +18698,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18807,6 +18912,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19024,6 +19130,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19233,6 +19340,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19450,6 +19558,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19667,6 +19776,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19880,6 +19990,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20093,6 +20204,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20298,6 +20410,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20499,6 +20612,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20704,6 +20818,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
